--- a/doc/please cek.xlsx
+++ b/doc/please cek.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xpdc\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="13380" windowHeight="3990" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="156" windowWidth="13380" windowHeight="3996" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -192,12 +197,30 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>1. mohon di tambahkan input di create customer payment terms, tax registration, accounting contact (name , phone number, email), discount percentage</t>
+  </si>
+  <si>
+    <t>2. create customer perlu approval super admin</t>
+  </si>
+  <si>
+    <t>3. setelah di approve account number customer tergenerate otomatis</t>
+  </si>
+  <si>
+    <t>4. shipment list yg muncul hanya shipment yg merupakan customer dari commercial tsb (bisa di sort berdasarkan account number pada saat create di billing detail)</t>
+  </si>
+  <si>
+    <t>5. dashboard untuk create quotation</t>
+  </si>
+  <si>
+    <t>6. sales overview (jumlah penjualan) month to date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,10 +262,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,6 +282,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -300,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,7 +368,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,16 +580,16 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="101.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="101.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,15 +600,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -583,7 +616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -594,7 +627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -605,15 +638,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -624,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -635,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -643,7 +676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -654,7 +687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -665,34 +698,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -716,13 +755,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -741,7 +780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -752,7 +791,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -760,7 +799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -771,7 +810,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -782,7 +821,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -790,7 +829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -798,7 +837,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -820,13 +859,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="175.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="175.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -837,7 +876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -848,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -859,7 +898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -870,7 +909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -881,7 +920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -889,7 +928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -897,7 +936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -905,7 +944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -924,13 +963,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -952,7 +991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -960,27 +999,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -998,14 +1037,14 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1024,7 +1063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1032,7 +1071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1040,7 +1079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1048,7 +1087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1056,7 +1095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1064,7 +1103,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1079,17 +1118,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1111,7 +1150,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1122,7 +1161,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1133,15 +1172,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1149,7 +1191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1157,7 +1199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1165,7 +1207,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1180,20 +1222,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1212,7 +1254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1220,7 +1262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1228,7 +1270,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1236,24 +1278,54 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1265,18 +1337,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1295,7 +1367,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1303,7 +1375,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1311,7 +1383,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1319,22 +1391,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>

--- a/doc/please cek.xlsx
+++ b/doc/please cek.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xpdc\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="156" windowWidth="13380" windowHeight="3996" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="13380" windowHeight="3930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -220,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -333,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,7 +363,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,16 +575,16 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="101.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="101.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -608,7 +603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -616,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -627,7 +622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -638,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -646,7 +641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -657,7 +652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -668,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -676,7 +671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -687,7 +682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -698,7 +693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -709,7 +704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -720,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -731,7 +726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -751,14 +746,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -859,10 +854,10 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="175.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="175.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -963,10 +958,10 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1037,11 +1032,11 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1118,14 +1113,14 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1224,18 +1219,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1254,7 +1249,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1262,7 +1257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1270,7 +1265,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1278,52 +1273,58 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>62</v>
       </c>
@@ -1341,11 +1342,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">

--- a/doc/please cek.xlsx
+++ b/doc/please cek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="13380" windowHeight="3930" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="13380" windowHeight="3930" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -265,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -575,7 +575,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,8 +637,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -746,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -927,7 +930,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -937,6 +940,9 @@
       </c>
       <c r="B8" t="s">
         <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1029,7 +1035,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,6 +1063,9 @@
       <c r="B2" t="s">
         <v>23</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1070,24 +1079,33 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1219,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,6 +1315,9 @@
       <c r="B10" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -1317,6 +1338,9 @@
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">

--- a/doc/please cek.xlsx
+++ b/doc/please cek.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xpdc\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="13380" windowHeight="3930" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="216" windowWidth="13380" windowHeight="3936" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -215,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -328,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,7 +368,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,16 +580,16 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="101.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="101.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -603,7 +608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -611,7 +616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -622,7 +627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -633,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -644,7 +649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -655,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -666,15 +671,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -685,7 +693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -696,7 +704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -707,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -718,7 +726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -729,7 +737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -750,13 +758,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -774,8 +782,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -823,8 +834,11 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -854,13 +868,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="175.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="175.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -922,8 +936,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -932,6 +949,9 @@
       </c>
       <c r="B7" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -961,13 +981,13 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1034,15 +1054,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1063,7 +1083,7 @@
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1073,6 +1093,9 @@
       </c>
       <c r="B3" t="s">
         <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1131,14 +1154,14 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1237,18 +1260,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1267,7 +1290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1275,7 +1298,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1283,7 +1306,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1291,27 +1314,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>57</v>
       </c>
@@ -1319,7 +1342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>58</v>
       </c>
@@ -1327,7 +1350,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>59</v>
       </c>
@@ -1335,7 +1358,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>60</v>
       </c>
@@ -1343,12 +1366,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>62</v>
       </c>
@@ -1363,14 +1386,14 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
